--- a/Python/examenes/parcial2/DB/Sales.xlsx
+++ b/Python/examenes/parcial2/DB/Sales.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>products</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29/05/2023</t>
+          <t>30/05/2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29/05/2023</t>
+          <t>30/05/2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>29/05/2023</t>
+          <t>30/05/2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/05/2023</t>
+          <t>30/05/2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/05/2023</t>
+          <t>30/05/2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
